--- a/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="13" r:id="rId1"/>
-    <sheet name="Input" sheetId="9" r:id="rId2"/>
+    <sheet name="Input" sheetId="9" r:id="rId1"/>
+    <sheet name="Summary" sheetId="13" r:id="rId2"/>
     <sheet name="Repayment Schedule" sheetId="17" r:id="rId3"/>
     <sheet name="Transactions" sheetId="18" r:id="rId4"/>
   </sheets>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -196,26 +196,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,9 +218,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -536,147 +521,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>10000</v>
-      </c>
-      <c r="B2" s="3">
-        <v>785.8</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="F2" s="3">
-        <v>802.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>668.41</v>
-      </c>
-      <c r="B3" s="3">
-        <v>101.92</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>566.49</v>
-      </c>
-      <c r="F3" s="3">
-        <v>84.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="14"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -708,12 +555,131 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>785.8</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="F2" s="3">
+        <v>802.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>668.41</v>
+      </c>
+      <c r="B3" s="3">
+        <v>101.92</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>566.49</v>
+      </c>
+      <c r="F3" s="3">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -736,65 +702,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>42005</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>10000</v>
       </c>
       <c r="H2" s="3"/>
@@ -819,13 +785,13 @@
       <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>42036</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>42036</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="3">
         <v>785.8</v>
       </c>
@@ -864,7 +830,7 @@
       <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>42064</v>
       </c>
       <c r="D4" s="3"/>
@@ -907,7 +873,7 @@
       <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>42095</v>
       </c>
       <c r="D5" s="3"/>
@@ -950,7 +916,7 @@
       <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>42125</v>
       </c>
       <c r="D6" s="3"/>
@@ -993,7 +959,7 @@
       <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>42156</v>
       </c>
       <c r="D7" s="3"/>
@@ -1036,7 +1002,7 @@
       <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>42186</v>
       </c>
       <c r="D8" s="3"/>
@@ -1079,7 +1045,7 @@
       <c r="B9" s="3">
         <v>31</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>42217</v>
       </c>
       <c r="D9" s="3"/>
@@ -1122,7 +1088,7 @@
       <c r="B10" s="3">
         <v>31</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>42248</v>
       </c>
       <c r="D10" s="3"/>
@@ -1165,7 +1131,7 @@
       <c r="B11" s="3">
         <v>30</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>42278</v>
       </c>
       <c r="D11" s="3"/>
@@ -1208,7 +1174,7 @@
       <c r="B12" s="3">
         <v>31</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>42309</v>
       </c>
       <c r="D12" s="3"/>
@@ -1251,7 +1217,7 @@
       <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>42339</v>
       </c>
       <c r="D13" s="3"/>
@@ -1294,7 +1260,7 @@
       <c r="B14" s="3">
         <v>31</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>42370</v>
       </c>
       <c r="D14" s="3"/>
@@ -1337,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1352,11 +1318,11 @@
     <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1384,14 +1350,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>2622</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="13">
         <v>42036</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1412,24 +1378,24 @@
       <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="14">
         <v>9214.2000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2621</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="15">
         <v>10000</v>
       </c>
       <c r="F3" s="5">
@@ -1444,14 +1410,9 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="15">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="9" r:id="rId1"/>
-    <sheet name="Summary" sheetId="13" r:id="rId2"/>
+    <sheet name="Summary" sheetId="13" r:id="rId1"/>
+    <sheet name="Input" sheetId="9" r:id="rId2"/>
     <sheet name="Repayment Schedule" sheetId="17" r:id="rId3"/>
     <sheet name="Transactions" sheetId="18" r:id="rId4"/>
   </sheets>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -210,9 +210,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -539,46 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
-        <v>42036</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -687,55 +648,79 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="14"/>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="14"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>42036</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -750,109 +735,84 @@
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="11">
         <v>42005</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="9">
         <v>10000</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3">
         <v>0</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -865,9 +825,7 @@
       <c r="D3" s="11">
         <v>42036</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="3">
         <v>785.8</v>
       </c>
@@ -895,14 +853,11 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
       <c r="P3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -912,12 +867,8 @@
       <c r="C4" s="11">
         <v>42064</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>802.9</v>
       </c>
@@ -945,216 +896,439 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
       <c r="P4" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="11"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>793.81</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7617.49</v>
+      </c>
+      <c r="H5" s="3">
+        <v>93.91</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11">
+        <v>42125</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="11"/>
+      <c r="F6" s="3">
+        <v>812.59</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6804.9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>75.13</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11">
+        <v>42156</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="11"/>
+      <c r="F7" s="3">
+        <v>818.37</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5986.53</v>
+      </c>
+      <c r="H7" s="3">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11">
+        <v>42186</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="11"/>
+      <c r="F8" s="3">
+        <v>828.67</v>
+      </c>
+      <c r="G8" s="7">
+        <v>5157.8599999999997</v>
+      </c>
+      <c r="H8" s="3">
+        <v>59.05</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42217</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="11"/>
+      <c r="F9" s="3">
+        <v>835.15</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4322.71</v>
+      </c>
+      <c r="H9" s="3">
+        <v>52.57</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>31</v>
+      </c>
+      <c r="C10" s="11">
+        <v>42248</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="11"/>
+      <c r="F10" s="3">
+        <v>843.66</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3479.05</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44.06</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11">
+        <v>42278</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="11"/>
+      <c r="F11" s="3">
+        <v>853.41</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2625.64</v>
+      </c>
+      <c r="H11" s="3">
+        <v>34.31</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>31</v>
+      </c>
+      <c r="C12" s="11">
+        <v>42309</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="11"/>
+      <c r="F12" s="3">
+        <v>860.96</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1764.68</v>
+      </c>
+      <c r="H12" s="3">
+        <v>26.76</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11">
+        <v>42339</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="11"/>
+      <c r="F13" s="3">
+        <v>870.31</v>
+      </c>
+      <c r="G13" s="3">
+        <v>894.37</v>
+      </c>
+      <c r="H13" s="3">
+        <v>17.41</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11">
+        <v>42370</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="F14" s="3">
+        <v>894.37</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>903.49</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>903.49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1179,10 +1353,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1217,7 +1391,7 @@
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>42036</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1238,7 +1412,7 @@
       <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="18">
         <v>9214.2000000000007</v>
       </c>
     </row>
@@ -1249,13 +1423,13 @@
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>42005</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>10000</v>
       </c>
       <c r="F3" s="5">
@@ -1270,14 +1444,14 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -230,6 +235,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -277,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,9 +318,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +370,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,10 +718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,12 +738,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -741,17 +784,18 @@
       <c r="M1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="9">
@@ -776,9 +820,10 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -816,14 +861,15 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -859,14 +905,15 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -902,14 +949,15 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -945,14 +993,15 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -988,14 +1037,15 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1031,14 +1081,15 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1074,14 +1125,15 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1117,14 +1169,15 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1160,14 +1213,15 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1203,14 +1257,15 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1246,14 +1301,15 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1289,10 +1345,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>903.49</v>
       </c>
     </row>
@@ -1305,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -123,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -285,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,26 +313,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,23 +348,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -720,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
